--- a/Assets/06.Table/SkyTowerTable.xlsx
+++ b/Assets/06.Table/SkyTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A444F2E-6C07-4CC2-804D-3C1F0DD3EF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121398B5-0F66-4732-A199-9A5F7D55E080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkyTowerTable" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +394,14 @@
   </si>
   <si>
     <t>맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -983,11 +991,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1238,7 +1246,7 @@
         <v>10004</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D11" si="0">D3+1</f>
+        <f t="shared" ref="D8:D41" si="0">D3+1</f>
         <v>2</v>
       </c>
       <c r="E8">
@@ -1359,9 +1367,999 @@
         <v>3800</v>
       </c>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>10004</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>5.9100000000000001E+240</v>
+      </c>
+      <c r="G12">
+        <v>1000</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>10004</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1.7730000000000001E+241</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>10004</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>5.319E+241</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>10004</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1.5957E+242</v>
+      </c>
+      <c r="G15">
+        <v>1000</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>10004</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>4.7870999999999995E+242</v>
+      </c>
+      <c r="G16">
+        <v>1000</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>10004</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1.4361300000000001E+243</v>
+      </c>
+      <c r="G17">
+        <v>1000</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>10004</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>4.3083900000000002E+243</v>
+      </c>
+      <c r="G18">
+        <v>1000</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>10004</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1.2926000000000001E+244</v>
+      </c>
+      <c r="G19">
+        <v>1000</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>10004</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>3.8800000000000003E+244</v>
+      </c>
+      <c r="G20">
+        <v>1000</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>10004</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1.1640000000000001E+245</v>
+      </c>
+      <c r="G21">
+        <v>1000</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>10004</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>3.4920000000000007E+245</v>
+      </c>
+      <c r="G22">
+        <v>1000</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>10004</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1.0476000000000001E+246</v>
+      </c>
+      <c r="G23">
+        <v>1000</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>10004</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>3.1427999999999999E+246</v>
+      </c>
+      <c r="G24">
+        <v>1000</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>10004</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>9.4284000000000013E+246</v>
+      </c>
+      <c r="G25">
+        <v>1000</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>10004</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2.8285200000000001E+247</v>
+      </c>
+      <c r="G26">
+        <v>1000</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>10004</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>8.4855599999999996E+247</v>
+      </c>
+      <c r="G27">
+        <v>1000</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>10004</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2.5457000000000003E+248</v>
+      </c>
+      <c r="G28">
+        <v>1000</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>10004</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>7.6400000000000001E+248</v>
+      </c>
+      <c r="G29">
+        <v>1000</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>10004</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2.2920000000000002E+249</v>
+      </c>
+      <c r="G30">
+        <v>1000</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>10004</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>6.8760000000000007E+249</v>
+      </c>
+      <c r="G31">
+        <v>1000</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>10004</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2.0628E+250</v>
+      </c>
+      <c r="G32">
+        <v>1000</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>10004</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>6.1884000000000002E+250</v>
+      </c>
+      <c r="G33">
+        <v>1000</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>10004</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1.8565199999999999E+251</v>
+      </c>
+      <c r="G34">
+        <v>1000</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>10004</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>5.5695600000000003E+251</v>
+      </c>
+      <c r="G35">
+        <v>1000</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>10004</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1.6709000000000003E+252</v>
+      </c>
+      <c r="G36">
+        <v>1000</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>10004</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>5.0199999999999997E+252</v>
+      </c>
+      <c r="G37">
+        <v>1000</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>10004</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1.5060000000000001E+253</v>
+      </c>
+      <c r="G38">
+        <v>1000</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>10004</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>4.5180000000000002E+253</v>
+      </c>
+      <c r="G39">
+        <v>1000</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>10004</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1.3554000000000001E+254</v>
+      </c>
+      <c r="G40">
+        <v>1000</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>10004</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>4.0662000000000007E+254</v>
+      </c>
+      <c r="G41">
+        <v>1000</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>9800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J11">
+  <conditionalFormatting sqref="A2:J11 G12:J41 A12:E41">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula>$C2=5</formula>
     </cfRule>
@@ -1375,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
   <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G18"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2569,23 +3567,23 @@
       </c>
       <c r="F35" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>2.54570</v>
-      </c>
-      <c r="G35" s="17" t="e">
+        <v>2.5457토</v>
+      </c>
+      <c r="G35" s="17">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>2.5457000000000003E+248</v>
       </c>
       <c r="H35" s="17">
         <f t="shared" si="5"/>
         <v>2.5457000000000001</v>
       </c>
-      <c r="I35" s="16" cm="1">
+      <c r="I35" s="16" t="str" cm="1">
         <f t="array" ref="I35">IF(AND(H34&gt;100,H35&lt;10),INDEX(L:L,MATCH(I34,L:L,0)+1,0),I34)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="16" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>토</v>
+      </c>
+      <c r="J35" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>1E+248</v>
       </c>
       <c r="K35" s="13"/>
       <c r="L35" s="16" t="s">
@@ -2618,23 +3616,23 @@
       </c>
       <c r="F36" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>7.640</v>
-      </c>
-      <c r="G36" s="17" t="e">
+        <v>7.64토</v>
+      </c>
+      <c r="G36" s="17">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>7.6400000000000001E+248</v>
       </c>
       <c r="H36" s="17">
         <f t="shared" si="5"/>
         <v>7.64</v>
       </c>
-      <c r="I36" s="16" cm="1">
+      <c r="I36" s="16" t="str" cm="1">
         <f t="array" ref="I36">IF(AND(H35&gt;100,H36&lt;10),INDEX(L:L,MATCH(I35,L:L,0)+1,0),I35)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="16" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>토</v>
+      </c>
+      <c r="J36" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>1E+248</v>
       </c>
       <c r="K36" s="13"/>
       <c r="L36" s="16" t="s">
@@ -2667,23 +3665,23 @@
       </c>
       <c r="F37" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>22.920</v>
-      </c>
-      <c r="G37" s="17" t="e">
+        <v>22.92토</v>
+      </c>
+      <c r="G37" s="17">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>2.2920000000000002E+249</v>
       </c>
       <c r="H37" s="17">
         <f t="shared" si="5"/>
         <v>22.92</v>
       </c>
-      <c r="I37" s="16" cm="1">
+      <c r="I37" s="16" t="str" cm="1">
         <f t="array" ref="I37">IF(AND(H36&gt;100,H37&lt;10),INDEX(L:L,MATCH(I36,L:L,0)+1,0),I36)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="16" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>토</v>
+      </c>
+      <c r="J37" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>1E+248</v>
       </c>
       <c r="K37" s="13"/>
       <c r="L37" s="16" t="s">
@@ -2716,23 +3714,23 @@
       </c>
       <c r="F38" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>68.760</v>
-      </c>
-      <c r="G38" s="17" t="e">
+        <v>68.76토</v>
+      </c>
+      <c r="G38" s="17">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>6.8760000000000007E+249</v>
       </c>
       <c r="H38" s="17">
         <f t="shared" si="5"/>
         <v>68.760000000000005</v>
       </c>
-      <c r="I38" s="16" cm="1">
+      <c r="I38" s="16" t="str" cm="1">
         <f t="array" ref="I38">IF(AND(H37&gt;100,H38&lt;10),INDEX(L:L,MATCH(I37,L:L,0)+1,0),I37)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="16" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>토</v>
+      </c>
+      <c r="J38" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>1E+248</v>
       </c>
       <c r="K38" s="13"/>
       <c r="L38" s="16" t="s">
@@ -2765,23 +3763,23 @@
       </c>
       <c r="F39" s="17" t="str">
         <f>H39&amp;I39</f>
-        <v>206.280</v>
-      </c>
-      <c r="G39" s="17" t="e">
+        <v>206.28토</v>
+      </c>
+      <c r="G39" s="17">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>2.0628E+250</v>
       </c>
       <c r="H39" s="17">
         <f t="shared" si="5"/>
         <v>206.28</v>
       </c>
-      <c r="I39" s="16" cm="1">
+      <c r="I39" s="16" t="str" cm="1">
         <f t="array" ref="I39">IF(AND(H38&gt;100,H39&lt;10),INDEX(L:L,MATCH(I38,L:L,0)+1,0),I38)</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="16" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>토</v>
+      </c>
+      <c r="J39" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>1E+248</v>
       </c>
       <c r="K39" s="13"/>
       <c r="L39" s="16" t="s">
@@ -2814,23 +3812,23 @@
       </c>
       <c r="F40" s="17" t="str">
         <f t="shared" ref="F40" si="10">H40&amp;I40</f>
-        <v>618.840</v>
-      </c>
-      <c r="G40" s="17" t="e">
+        <v>618.84토</v>
+      </c>
+      <c r="G40" s="17">
         <f t="shared" ref="G40:G43" si="11">H40*J40</f>
-        <v>#N/A</v>
+        <v>6.1884000000000002E+250</v>
       </c>
       <c r="H40" s="17">
         <f t="shared" si="5"/>
         <v>618.84</v>
       </c>
-      <c r="I40" s="16" cm="1">
+      <c r="I40" s="16" t="str" cm="1">
         <f t="array" ref="I40">IF(AND(H39&gt;100,H40&lt;10),INDEX(L:L,MATCH(I39,L:L,0)+1,0),I39)</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="16" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>토</v>
+      </c>
+      <c r="J40" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>1E+248</v>
       </c>
       <c r="L40" s="16" t="s">
         <v>59</v>
@@ -2862,23 +3860,23 @@
       </c>
       <c r="F41" s="17" t="str">
         <f>H41&amp;I41</f>
-        <v>1856.520</v>
-      </c>
-      <c r="G41" s="17" t="e">
+        <v>1856.52토</v>
+      </c>
+      <c r="G41" s="17">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
+        <v>1.8565199999999999E+251</v>
       </c>
       <c r="H41" s="17">
         <f t="shared" si="5"/>
         <v>1856.52</v>
       </c>
-      <c r="I41" s="16" cm="1">
+      <c r="I41" s="16" t="str" cm="1">
         <f t="array" ref="I41">IF(AND(H40&gt;100,H41&lt;10),INDEX(L:L,MATCH(I40,L:L,0)+1,0),I40)</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="16" t="e">
+        <v>토</v>
+      </c>
+      <c r="J41" s="16" t="str">
         <f t="shared" ref="J41:J72" si="12">VLOOKUP(I41,L:O,4,FALSE)</f>
-        <v>#N/A</v>
+        <v>1E+248</v>
       </c>
       <c r="L41" s="16" t="s">
         <v>60</v>
@@ -2910,23 +3908,23 @@
       </c>
       <c r="F42" s="17" t="str">
         <f t="shared" ref="F42" si="13">H42&amp;I42</f>
-        <v>5569.560</v>
-      </c>
-      <c r="G42" s="17" t="e">
+        <v>5569.56토</v>
+      </c>
+      <c r="G42" s="17">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
+        <v>5.5695600000000003E+251</v>
       </c>
       <c r="H42" s="17">
         <f t="shared" si="5"/>
         <v>5569.56</v>
       </c>
-      <c r="I42" s="16" cm="1">
+      <c r="I42" s="16" t="str" cm="1">
         <f t="array" ref="I42">IF(AND(H41&gt;100,H42&lt;10),INDEX(L:L,MATCH(I41,L:L,0)+1,0),I41)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="16" t="e">
+        <v>토</v>
+      </c>
+      <c r="J42" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+248</v>
       </c>
       <c r="L42" s="16" t="s">
         <v>61</v>
@@ -2956,25 +3954,25 @@
       <c r="E43" s="16">
         <v>35</v>
       </c>
-      <c r="F43" s="17" t="e">
+      <c r="F43" s="17" t="str">
         <f>H43&amp;I43</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G43" s="17" t="e">
+        <v>1.6709산</v>
+      </c>
+      <c r="G43" s="17">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
+        <v>1.6709000000000003E+252</v>
       </c>
       <c r="H43" s="17">
         <f t="shared" si="5"/>
         <v>1.6709000000000001</v>
       </c>
-      <c r="I43" s="16" t="e" cm="1">
+      <c r="I43" s="16" t="str" cm="1">
         <f t="array" ref="I43">IF(AND(H42&gt;100,H43&lt;10),INDEX(L:L,MATCH(I42,L:L,0)+1,0),I42)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J43" s="16" t="e">
+        <v>산</v>
+      </c>
+      <c r="J43" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+252</v>
       </c>
       <c r="L43" s="16" t="s">
         <v>62</v>
@@ -3004,25 +4002,25 @@
       <c r="E44" s="16">
         <v>36</v>
       </c>
-      <c r="F44" s="17" t="e">
+      <c r="F44" s="17" t="str">
         <f t="shared" ref="F44:F48" si="16">H44&amp;I44</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G44" s="17" t="e">
+        <v>5.02산</v>
+      </c>
+      <c r="G44" s="17">
         <f t="shared" ref="G44:G48" si="17">H44*J44</f>
-        <v>#N/A</v>
+        <v>5.0199999999999997E+252</v>
       </c>
       <c r="H44" s="17">
         <f t="shared" si="5"/>
         <v>5.0199999999999996</v>
       </c>
-      <c r="I44" s="16" t="e" cm="1">
+      <c r="I44" s="16" t="str" cm="1">
         <f t="array" ref="I44">IF(AND(H43&gt;100,H44&lt;10),INDEX(L:L,MATCH(I43,L:L,0)+1,0),I43)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J44" s="16" t="e">
+        <v>산</v>
+      </c>
+      <c r="J44" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+252</v>
       </c>
       <c r="L44" s="16" t="s">
         <v>63</v>
@@ -3052,25 +4050,25 @@
       <c r="E45" s="16">
         <v>37</v>
       </c>
-      <c r="F45" s="17" t="e">
+      <c r="F45" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G45" s="17" t="e">
+        <v>15.06산</v>
+      </c>
+      <c r="G45" s="17">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>1.5060000000000001E+253</v>
       </c>
       <c r="H45" s="17">
         <f t="shared" si="5"/>
         <v>15.06</v>
       </c>
-      <c r="I45" s="16" t="e" cm="1">
+      <c r="I45" s="16" t="str" cm="1">
         <f t="array" ref="I45">IF(AND(H44&gt;100,H45&lt;10),INDEX(L:L,MATCH(I44,L:L,0)+1,0),I44)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J45" s="16" t="e">
+        <v>산</v>
+      </c>
+      <c r="J45" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+252</v>
       </c>
       <c r="L45" s="16" t="s">
         <v>64</v>
@@ -3100,25 +4098,25 @@
       <c r="E46" s="16">
         <v>38</v>
       </c>
-      <c r="F46" s="17" t="e">
+      <c r="F46" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G46" s="17" t="e">
+        <v>45.18산</v>
+      </c>
+      <c r="G46" s="17">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>4.5180000000000002E+253</v>
       </c>
       <c r="H46" s="17">
         <f t="shared" si="5"/>
         <v>45.18</v>
       </c>
-      <c r="I46" s="16" t="e" cm="1">
+      <c r="I46" s="16" t="str" cm="1">
         <f t="array" ref="I46">IF(AND(H45&gt;100,H46&lt;10),INDEX(L:L,MATCH(I45,L:L,0)+1,0),I45)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J46" s="16" t="e">
+        <v>산</v>
+      </c>
+      <c r="J46" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+252</v>
       </c>
       <c r="L46" s="16" t="s">
         <v>65</v>
@@ -3148,25 +4146,25 @@
       <c r="E47" s="16">
         <v>39</v>
       </c>
-      <c r="F47" s="17" t="e">
+      <c r="F47" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G47" s="17" t="e">
+        <v>135.54산</v>
+      </c>
+      <c r="G47" s="17">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>1.3554000000000001E+254</v>
       </c>
       <c r="H47" s="17">
         <f t="shared" si="5"/>
         <v>135.54</v>
       </c>
-      <c r="I47" s="16" t="e" cm="1">
+      <c r="I47" s="16" t="str" cm="1">
         <f t="array" ref="I47">IF(AND(H46&gt;100,H47&lt;10),INDEX(L:L,MATCH(I46,L:L,0)+1,0),I46)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J47" s="16" t="e">
+        <v>산</v>
+      </c>
+      <c r="J47" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+252</v>
       </c>
       <c r="L47" s="16" t="s">
         <v>66</v>
@@ -3196,25 +4194,25 @@
       <c r="E48" s="16">
         <v>40</v>
       </c>
-      <c r="F48" s="17" t="e">
+      <c r="F48" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G48" s="17" t="e">
+        <v>406.62산</v>
+      </c>
+      <c r="G48" s="17">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>4.0662000000000007E+254</v>
       </c>
       <c r="H48" s="17">
         <f t="shared" si="5"/>
         <v>406.62</v>
       </c>
-      <c r="I48" s="16" t="e" cm="1">
+      <c r="I48" s="16" t="str" cm="1">
         <f t="array" ref="I48">IF(AND(H47&gt;100,H48&lt;10),INDEX(L:L,MATCH(I47,L:L,0)+1,0),I47)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J48" s="16" t="e">
+        <v>산</v>
+      </c>
+      <c r="J48" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+252</v>
       </c>
       <c r="L48" s="16" t="s">
         <v>74</v>
@@ -3244,25 +4242,25 @@
       <c r="E49" s="16">
         <v>41</v>
       </c>
-      <c r="F49" s="17" t="e">
+      <c r="F49" s="17" t="str">
         <f t="shared" ref="F49:F53" si="22">H49&amp;I49</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G49" s="17" t="e">
+        <v>1219.86산</v>
+      </c>
+      <c r="G49" s="17">
         <f t="shared" ref="G49:G53" si="23">H49*J49</f>
-        <v>#N/A</v>
+        <v>1.21986E+255</v>
       </c>
       <c r="H49" s="17">
         <f t="shared" si="5"/>
         <v>1219.8599999999999</v>
       </c>
-      <c r="I49" s="16" t="e" cm="1">
+      <c r="I49" s="16" t="str" cm="1">
         <f t="array" ref="I49">IF(AND(H48&gt;100,H49&lt;10),INDEX(L:L,MATCH(I48,L:L,0)+1,0),I48)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J49" s="16" t="e">
+        <v>산</v>
+      </c>
+      <c r="J49" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+252</v>
       </c>
       <c r="L49" s="16" t="s">
         <v>75</v>
@@ -3292,25 +4290,25 @@
       <c r="E50" s="16">
         <v>42</v>
       </c>
-      <c r="F50" s="17" t="e">
+      <c r="F50" s="17" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G50" s="17" t="e">
+        <v>3659.58산</v>
+      </c>
+      <c r="G50" s="17">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>3.6595800000000004E+255</v>
       </c>
       <c r="H50" s="17">
         <f t="shared" si="5"/>
         <v>3659.58</v>
       </c>
-      <c r="I50" s="16" t="e" cm="1">
+      <c r="I50" s="16" t="str" cm="1">
         <f t="array" ref="I50">IF(AND(H49&gt;100,H50&lt;10),INDEX(L:L,MATCH(I49,L:L,0)+1,0),I49)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J50" s="16" t="e">
+        <v>산</v>
+      </c>
+      <c r="J50" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+252</v>
       </c>
       <c r="L50" s="16" t="s">
         <v>76</v>
@@ -3340,9 +4338,9 @@
       <c r="E51" s="16">
         <v>43</v>
       </c>
-      <c r="F51" s="17" t="e">
+      <c r="F51" s="17" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>1.09790</v>
       </c>
       <c r="G51" s="17" t="e">
         <f t="shared" si="23"/>
@@ -3352,9 +4350,9 @@
         <f t="shared" si="5"/>
         <v>1.0979000000000001</v>
       </c>
-      <c r="I51" s="16" t="e" cm="1">
+      <c r="I51" s="16" cm="1">
         <f t="array" ref="I51">IF(AND(H50&gt;100,H51&lt;10),INDEX(L:L,MATCH(I50,L:L,0)+1,0),I50)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J51" s="16" t="e">
         <f t="shared" si="12"/>
@@ -3388,9 +4386,9 @@
       <c r="E52" s="16">
         <v>44</v>
       </c>
-      <c r="F52" s="17" t="e">
+      <c r="F52" s="17" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>3.30</v>
       </c>
       <c r="G52" s="17" t="e">
         <f t="shared" si="23"/>
@@ -3400,9 +4398,9 @@
         <f t="shared" si="5"/>
         <v>3.3</v>
       </c>
-      <c r="I52" s="16" t="e" cm="1">
+      <c r="I52" s="16" cm="1">
         <f t="array" ref="I52">IF(AND(H51&gt;100,H52&lt;10),INDEX(L:L,MATCH(I51,L:L,0)+1,0),I51)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J52" s="16" t="e">
         <f t="shared" si="12"/>
@@ -3436,9 +4434,9 @@
       <c r="E53" s="16">
         <v>45</v>
       </c>
-      <c r="F53" s="17" t="e">
+      <c r="F53" s="17" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>9.90</v>
       </c>
       <c r="G53" s="17" t="e">
         <f t="shared" si="23"/>
@@ -3448,9 +4446,9 @@
         <f t="shared" si="5"/>
         <v>9.9</v>
       </c>
-      <c r="I53" s="16" t="e" cm="1">
+      <c r="I53" s="16" cm="1">
         <f t="array" ref="I53">IF(AND(H52&gt;100,H53&lt;10),INDEX(L:L,MATCH(I52,L:L,0)+1,0),I52)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J53" s="16" t="e">
         <f t="shared" si="12"/>
@@ -3484,9 +4482,9 @@
       <c r="E54" s="16">
         <v>46</v>
       </c>
-      <c r="F54" s="17" t="e">
+      <c r="F54" s="17" t="str">
         <f t="shared" ref="F54:F58" si="26">H54&amp;I54</f>
-        <v>#N/A</v>
+        <v>29.70</v>
       </c>
       <c r="G54" s="17" t="e">
         <f t="shared" ref="G54:G58" si="27">H54*J54</f>
@@ -3496,9 +4494,9 @@
         <f t="shared" si="5"/>
         <v>29.7</v>
       </c>
-      <c r="I54" s="16" t="e" cm="1">
+      <c r="I54" s="16" cm="1">
         <f t="array" ref="I54">IF(AND(H53&gt;100,H54&lt;10),INDEX(L:L,MATCH(I53,L:L,0)+1,0),I53)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J54" s="16" t="e">
         <f t="shared" si="12"/>
@@ -3532,9 +4530,9 @@
       <c r="E55" s="16">
         <v>47</v>
       </c>
-      <c r="F55" s="17" t="e">
+      <c r="F55" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>89.10</v>
       </c>
       <c r="G55" s="17" t="e">
         <f t="shared" si="27"/>
@@ -3544,9 +4542,9 @@
         <f t="shared" si="5"/>
         <v>89.1</v>
       </c>
-      <c r="I55" s="16" t="e" cm="1">
+      <c r="I55" s="16" cm="1">
         <f t="array" ref="I55">IF(AND(H54&gt;100,H55&lt;10),INDEX(L:L,MATCH(I54,L:L,0)+1,0),I54)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J55" s="16" t="e">
         <f t="shared" si="12"/>
@@ -3580,9 +4578,9 @@
       <c r="E56" s="16">
         <v>48</v>
       </c>
-      <c r="F56" s="17" t="e">
+      <c r="F56" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>267.30</v>
       </c>
       <c r="G56" s="17" t="e">
         <f t="shared" si="27"/>
@@ -3592,9 +4590,9 @@
         <f t="shared" si="5"/>
         <v>267.3</v>
       </c>
-      <c r="I56" s="16" t="e" cm="1">
+      <c r="I56" s="16" cm="1">
         <f t="array" ref="I56">IF(AND(H55&gt;100,H56&lt;10),INDEX(L:L,MATCH(I55,L:L,0)+1,0),I55)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J56" s="16" t="e">
         <f t="shared" si="12"/>
@@ -3628,9 +4626,9 @@
       <c r="E57" s="16">
         <v>49</v>
       </c>
-      <c r="F57" s="17" t="e">
+      <c r="F57" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>801.90</v>
       </c>
       <c r="G57" s="17" t="e">
         <f t="shared" si="27"/>
@@ -3640,9 +4638,9 @@
         <f t="shared" si="5"/>
         <v>801.9</v>
       </c>
-      <c r="I57" s="16" t="e" cm="1">
+      <c r="I57" s="16" cm="1">
         <f t="array" ref="I57">IF(AND(H56&gt;100,H57&lt;10),INDEX(L:L,MATCH(I56,L:L,0)+1,0),I56)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J57" s="16" t="e">
         <f t="shared" si="12"/>
@@ -3676,9 +4674,9 @@
       <c r="E58" s="16">
         <v>50</v>
       </c>
-      <c r="F58" s="17" t="e">
+      <c r="F58" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>2405.70</v>
       </c>
       <c r="G58" s="17" t="e">
         <f t="shared" si="27"/>
@@ -3688,9 +4686,9 @@
         <f t="shared" si="5"/>
         <v>2405.6999999999998</v>
       </c>
-      <c r="I58" s="16" t="e" cm="1">
+      <c r="I58" s="16" cm="1">
         <f t="array" ref="I58">IF(AND(H57&gt;100,H58&lt;10),INDEX(L:L,MATCH(I57,L:L,0)+1,0),I57)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J58" s="16" t="e">
         <f t="shared" si="12"/>
@@ -3724,9 +4722,9 @@
       <c r="E59" s="16">
         <v>51</v>
       </c>
-      <c r="F59" s="17" t="e">
+      <c r="F59" s="17" t="str">
         <f t="shared" ref="F59:F78" si="32">H59&amp;I59</f>
-        <v>#N/A</v>
+        <v>7217.10</v>
       </c>
       <c r="G59" s="17" t="e">
         <f t="shared" ref="G59:G78" si="33">H59*J59</f>
@@ -3736,9 +4734,9 @@
         <f t="shared" si="5"/>
         <v>7217.1</v>
       </c>
-      <c r="I59" s="16" t="e" cm="1">
+      <c r="I59" s="16" cm="1">
         <f t="array" ref="I59">IF(AND(H58&gt;100,H59&lt;10),INDEX(L:L,MATCH(I58,L:L,0)+1,0),I58)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J59" s="16" t="e">
         <f t="shared" si="12"/>
@@ -4206,6 +5204,20 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
+      <c r="L69" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="M69" s="16">
+        <v>248</v>
+      </c>
+      <c r="N69" s="17">
+        <f t="shared" ref="N69:N70" si="42">POWER(10,M69)</f>
+        <v>1E+248</v>
+      </c>
+      <c r="O69" s="17" t="str">
+        <f t="shared" ref="O69:O70" si="43">RIGHT(N69,M69)</f>
+        <v>1E+248</v>
+      </c>
     </row>
     <row r="70" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E70" s="16">
@@ -4231,6 +5243,20 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
+      <c r="L70" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="M70" s="16">
+        <v>252</v>
+      </c>
+      <c r="N70" s="17">
+        <f t="shared" si="42"/>
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="O70" s="17" t="str">
+        <f t="shared" si="43"/>
+        <v>1E+252</v>
+      </c>
     </row>
     <row r="71" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E71" s="16">
@@ -4303,7 +5329,7 @@
         <v>#N/A</v>
       </c>
       <c r="J73" s="16" t="e">
-        <f t="shared" ref="J73:J78" si="42">VLOOKUP(I73,L:O,4,FALSE)</f>
+        <f t="shared" ref="J73:J78" si="44">VLOOKUP(I73,L:O,4,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4328,7 +5354,7 @@
         <v>#N/A</v>
       </c>
       <c r="J74" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4345,7 +5371,7 @@
         <v>#N/A</v>
       </c>
       <c r="H75" s="17">
-        <f t="shared" ref="H75:H78" si="43">IF(ROUNDUP(H74*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H74*((100+$B$10)/100)/10000,4),ROUNDUP(H74*((100+$B$10)/100),2))</f>
+        <f t="shared" ref="H75:H78" si="45">IF(ROUNDUP(H74*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H74*((100+$B$10)/100)/10000,4),ROUNDUP(H74*((100+$B$10)/100),2))</f>
         <v>3112.83</v>
       </c>
       <c r="I75" s="16" t="e" cm="1">
@@ -4353,7 +5379,7 @@
         <v>#N/A</v>
       </c>
       <c r="J75" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4370,7 +5396,7 @@
         <v>#N/A</v>
       </c>
       <c r="H76" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>9338.49</v>
       </c>
       <c r="I76" s="16" t="e" cm="1">
@@ -4378,7 +5404,7 @@
         <v>#N/A</v>
       </c>
       <c r="J76" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4395,7 +5421,7 @@
         <v>#N/A</v>
       </c>
       <c r="H77" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>2.8016000000000001</v>
       </c>
       <c r="I77" s="16" t="e" cm="1">
@@ -4403,7 +5429,7 @@
         <v>#N/A</v>
       </c>
       <c r="J77" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4420,7 +5446,7 @@
         <v>#N/A</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>8.41</v>
       </c>
       <c r="I78" s="16" t="e" cm="1">
@@ -4428,7 +5454,7 @@
         <v>#N/A</v>
       </c>
       <c r="J78" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
     </row>

--- a/Assets/06.Table/SkyTowerTable.xlsx
+++ b/Assets/06.Table/SkyTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121398B5-0F66-4732-A199-9A5F7D55E080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03611675-10CA-4FBF-BE52-B920A27D7E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="96">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,6 +402,26 @@
   </si>
   <si>
     <t>산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,11 +1011,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1246,7 +1266,7 @@
         <v>10004</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D41" si="0">D3+1</f>
+        <f t="shared" ref="D8:D71" si="0">D3+1</f>
         <v>2</v>
       </c>
       <c r="E8">
@@ -2357,9 +2377,999 @@
         <v>9800</v>
       </c>
     </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>10004</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1.21986E+255</v>
+      </c>
+      <c r="G42">
+        <v>1000</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>10004</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>3.6595800000000004E+255</v>
+      </c>
+      <c r="G43">
+        <v>1000</v>
+      </c>
+      <c r="H43">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>10004</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1.0979000000000002E+256</v>
+      </c>
+      <c r="G44">
+        <v>1000</v>
+      </c>
+      <c r="H44">
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>10004</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>3.2999999999999999E+256</v>
+      </c>
+      <c r="G45">
+        <v>1000</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>10004</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>9.900000000000001E+256</v>
+      </c>
+      <c r="G46">
+        <v>1000</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>10004</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>2.97E+257</v>
+      </c>
+      <c r="G47">
+        <v>1000</v>
+      </c>
+      <c r="H47">
+        <v>8</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>10004</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>8.9100000000000001E+257</v>
+      </c>
+      <c r="G48">
+        <v>1000</v>
+      </c>
+      <c r="H48">
+        <v>8</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>10004</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>2.6730000000000004E+258</v>
+      </c>
+      <c r="G49">
+        <v>1000</v>
+      </c>
+      <c r="H49">
+        <v>8</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>10004</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>8.0189999999999994E+258</v>
+      </c>
+      <c r="G50">
+        <v>1000</v>
+      </c>
+      <c r="H50">
+        <v>8</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>10004</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>2.4056999999999998E+259</v>
+      </c>
+      <c r="G51">
+        <v>1000</v>
+      </c>
+      <c r="H51">
+        <v>8</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>10004</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>7.2171000000000011E+259</v>
+      </c>
+      <c r="G52">
+        <v>1000</v>
+      </c>
+      <c r="H52">
+        <v>8</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>10004</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>2.1652000000000001E+260</v>
+      </c>
+      <c r="G53">
+        <v>1000</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>10004</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>6.5000000000000006E+260</v>
+      </c>
+      <c r="G54">
+        <v>1000</v>
+      </c>
+      <c r="H54">
+        <v>8</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>10004</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1.9500000000000002E+261</v>
+      </c>
+      <c r="G55">
+        <v>1000</v>
+      </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>10004</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>5.8500000000000001E+261</v>
+      </c>
+      <c r="G56">
+        <v>1000</v>
+      </c>
+      <c r="H56">
+        <v>8</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>10004</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1.755E+262</v>
+      </c>
+      <c r="G57">
+        <v>1000</v>
+      </c>
+      <c r="H57">
+        <v>8</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>10004</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>5.2650000000000001E+262</v>
+      </c>
+      <c r="G58">
+        <v>1000</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>10004</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1.5795E+263</v>
+      </c>
+      <c r="G59">
+        <v>1000</v>
+      </c>
+      <c r="H59">
+        <v>8</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>10004</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>4.7385000000000001E+263</v>
+      </c>
+      <c r="G60">
+        <v>1000</v>
+      </c>
+      <c r="H60">
+        <v>8</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>10004</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1.4216E+264</v>
+      </c>
+      <c r="G61">
+        <v>1000</v>
+      </c>
+      <c r="H61">
+        <v>8</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>10004</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>4.2699999999999994E+264</v>
+      </c>
+      <c r="G62">
+        <v>1000</v>
+      </c>
+      <c r="H62">
+        <v>8</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>10004</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1.2810000000000001E+265</v>
+      </c>
+      <c r="G63">
+        <v>1000</v>
+      </c>
+      <c r="H63">
+        <v>8</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>10004</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>3.8430000000000001E+265</v>
+      </c>
+      <c r="G64">
+        <v>1000</v>
+      </c>
+      <c r="H64">
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>10004</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1.1529000000000001E+266</v>
+      </c>
+      <c r="G65">
+        <v>1000</v>
+      </c>
+      <c r="H65">
+        <v>8</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>10004</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>3.4587000000000001E+266</v>
+      </c>
+      <c r="G66">
+        <v>1000</v>
+      </c>
+      <c r="H66">
+        <v>8</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>10004</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1.0376099999999999E+267</v>
+      </c>
+      <c r="G67">
+        <v>1000</v>
+      </c>
+      <c r="H67">
+        <v>8</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>10004</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>3.1128299999999998E+267</v>
+      </c>
+      <c r="G68">
+        <v>1000</v>
+      </c>
+      <c r="H68">
+        <v>8</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>10004</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>9.33849E+267</v>
+      </c>
+      <c r="G69">
+        <v>1000</v>
+      </c>
+      <c r="H69">
+        <v>8</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>10004</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>2.8015999999999998E+268</v>
+      </c>
+      <c r="G70">
+        <v>1000</v>
+      </c>
+      <c r="H70">
+        <v>8</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>10004</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>8.4100000000000004E+268</v>
+      </c>
+      <c r="G71">
+        <v>1000</v>
+      </c>
+      <c r="H71">
+        <v>8</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>15800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J11 G12:J41 A12:E41">
+  <conditionalFormatting sqref="A2:J11 A12:E71 G12:J71">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2373,8 +3383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
   <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4340,23 +5350,23 @@
       </c>
       <c r="F51" s="17" t="str">
         <f t="shared" si="22"/>
-        <v>1.09790</v>
-      </c>
-      <c r="G51" s="17" t="e">
+        <v>1.0979강</v>
+      </c>
+      <c r="G51" s="17">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>1.0979000000000002E+256</v>
       </c>
       <c r="H51" s="17">
         <f t="shared" si="5"/>
         <v>1.0979000000000001</v>
       </c>
-      <c r="I51" s="16" cm="1">
+      <c r="I51" s="16" t="str" cm="1">
         <f t="array" ref="I51">IF(AND(H50&gt;100,H51&lt;10),INDEX(L:L,MATCH(I50,L:L,0)+1,0),I50)</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="16" t="e">
+        <v>강</v>
+      </c>
+      <c r="J51" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+256</v>
       </c>
       <c r="L51" s="16" t="s">
         <v>77</v>
@@ -4388,23 +5398,23 @@
       </c>
       <c r="F52" s="17" t="str">
         <f t="shared" si="22"/>
-        <v>3.30</v>
-      </c>
-      <c r="G52" s="17" t="e">
+        <v>3.3강</v>
+      </c>
+      <c r="G52" s="17">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>3.2999999999999999E+256</v>
       </c>
       <c r="H52" s="17">
         <f t="shared" si="5"/>
         <v>3.3</v>
       </c>
-      <c r="I52" s="16" cm="1">
+      <c r="I52" s="16" t="str" cm="1">
         <f t="array" ref="I52">IF(AND(H51&gt;100,H52&lt;10),INDEX(L:L,MATCH(I51,L:L,0)+1,0),I51)</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="16" t="e">
+        <v>강</v>
+      </c>
+      <c r="J52" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+256</v>
       </c>
       <c r="L52" s="16" t="s">
         <v>78</v>
@@ -4436,23 +5446,23 @@
       </c>
       <c r="F53" s="17" t="str">
         <f t="shared" si="22"/>
-        <v>9.90</v>
-      </c>
-      <c r="G53" s="17" t="e">
+        <v>9.9강</v>
+      </c>
+      <c r="G53" s="17">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>9.900000000000001E+256</v>
       </c>
       <c r="H53" s="17">
         <f t="shared" si="5"/>
         <v>9.9</v>
       </c>
-      <c r="I53" s="16" cm="1">
+      <c r="I53" s="16" t="str" cm="1">
         <f t="array" ref="I53">IF(AND(H52&gt;100,H53&lt;10),INDEX(L:L,MATCH(I52,L:L,0)+1,0),I52)</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="16" t="e">
+        <v>강</v>
+      </c>
+      <c r="J53" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+256</v>
       </c>
       <c r="L53" s="16" t="s">
         <v>67</v>
@@ -4484,23 +5494,23 @@
       </c>
       <c r="F54" s="17" t="str">
         <f t="shared" ref="F54:F58" si="26">H54&amp;I54</f>
-        <v>29.70</v>
-      </c>
-      <c r="G54" s="17" t="e">
+        <v>29.7강</v>
+      </c>
+      <c r="G54" s="17">
         <f t="shared" ref="G54:G58" si="27">H54*J54</f>
-        <v>#N/A</v>
+        <v>2.97E+257</v>
       </c>
       <c r="H54" s="17">
         <f t="shared" si="5"/>
         <v>29.7</v>
       </c>
-      <c r="I54" s="16" cm="1">
+      <c r="I54" s="16" t="str" cm="1">
         <f t="array" ref="I54">IF(AND(H53&gt;100,H54&lt;10),INDEX(L:L,MATCH(I53,L:L,0)+1,0),I53)</f>
-        <v>0</v>
-      </c>
-      <c r="J54" s="16" t="e">
+        <v>강</v>
+      </c>
+      <c r="J54" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+256</v>
       </c>
       <c r="L54" s="16" t="s">
         <v>68</v>
@@ -4532,23 +5542,23 @@
       </c>
       <c r="F55" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>89.10</v>
-      </c>
-      <c r="G55" s="17" t="e">
+        <v>89.1강</v>
+      </c>
+      <c r="G55" s="17">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>8.9100000000000001E+257</v>
       </c>
       <c r="H55" s="17">
         <f t="shared" si="5"/>
         <v>89.1</v>
       </c>
-      <c r="I55" s="16" cm="1">
+      <c r="I55" s="16" t="str" cm="1">
         <f t="array" ref="I55">IF(AND(H54&gt;100,H55&lt;10),INDEX(L:L,MATCH(I54,L:L,0)+1,0),I54)</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="16" t="e">
+        <v>강</v>
+      </c>
+      <c r="J55" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+256</v>
       </c>
       <c r="L55" s="16" t="s">
         <v>69</v>
@@ -4580,23 +5590,23 @@
       </c>
       <c r="F56" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>267.30</v>
-      </c>
-      <c r="G56" s="17" t="e">
+        <v>267.3강</v>
+      </c>
+      <c r="G56" s="17">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>2.6730000000000004E+258</v>
       </c>
       <c r="H56" s="17">
         <f t="shared" si="5"/>
         <v>267.3</v>
       </c>
-      <c r="I56" s="16" cm="1">
+      <c r="I56" s="16" t="str" cm="1">
         <f t="array" ref="I56">IF(AND(H55&gt;100,H56&lt;10),INDEX(L:L,MATCH(I55,L:L,0)+1,0),I55)</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="16" t="e">
+        <v>강</v>
+      </c>
+      <c r="J56" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+256</v>
       </c>
       <c r="L56" s="16" t="s">
         <v>70</v>
@@ -4628,23 +5638,23 @@
       </c>
       <c r="F57" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>801.90</v>
-      </c>
-      <c r="G57" s="17" t="e">
+        <v>801.9강</v>
+      </c>
+      <c r="G57" s="17">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>8.0189999999999994E+258</v>
       </c>
       <c r="H57" s="17">
         <f t="shared" si="5"/>
         <v>801.9</v>
       </c>
-      <c r="I57" s="16" cm="1">
+      <c r="I57" s="16" t="str" cm="1">
         <f t="array" ref="I57">IF(AND(H56&gt;100,H57&lt;10),INDEX(L:L,MATCH(I56,L:L,0)+1,0),I56)</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="16" t="e">
+        <v>강</v>
+      </c>
+      <c r="J57" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+256</v>
       </c>
       <c r="L57" s="16" t="s">
         <v>71</v>
@@ -4676,23 +5686,23 @@
       </c>
       <c r="F58" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>2405.70</v>
-      </c>
-      <c r="G58" s="17" t="e">
+        <v>2405.7강</v>
+      </c>
+      <c r="G58" s="17">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>2.4056999999999998E+259</v>
       </c>
       <c r="H58" s="17">
         <f t="shared" si="5"/>
         <v>2405.6999999999998</v>
       </c>
-      <c r="I58" s="16" cm="1">
+      <c r="I58" s="16" t="str" cm="1">
         <f t="array" ref="I58">IF(AND(H57&gt;100,H58&lt;10),INDEX(L:L,MATCH(I57,L:L,0)+1,0),I57)</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="16" t="e">
+        <v>강</v>
+      </c>
+      <c r="J58" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+256</v>
       </c>
       <c r="L58" s="16" t="s">
         <v>72</v>
@@ -4724,23 +5734,23 @@
       </c>
       <c r="F59" s="17" t="str">
         <f t="shared" ref="F59:F78" si="32">H59&amp;I59</f>
-        <v>7217.10</v>
-      </c>
-      <c r="G59" s="17" t="e">
+        <v>7217.1강</v>
+      </c>
+      <c r="G59" s="17">
         <f t="shared" ref="G59:G78" si="33">H59*J59</f>
-        <v>#N/A</v>
+        <v>7.2171000000000011E+259</v>
       </c>
       <c r="H59" s="17">
         <f t="shared" si="5"/>
         <v>7217.1</v>
       </c>
-      <c r="I59" s="16" cm="1">
+      <c r="I59" s="16" t="str" cm="1">
         <f t="array" ref="I59">IF(AND(H58&gt;100,H59&lt;10),INDEX(L:L,MATCH(I58,L:L,0)+1,0),I58)</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="16" t="e">
+        <v>강</v>
+      </c>
+      <c r="J59" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+256</v>
       </c>
       <c r="L59" s="16" t="s">
         <v>80</v>
@@ -4770,25 +5780,25 @@
       <c r="E60" s="16">
         <v>52</v>
       </c>
-      <c r="F60" s="17" t="e">
+      <c r="F60" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G60" s="17" t="e">
+        <v>2.1652환</v>
+      </c>
+      <c r="G60" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>2.1652000000000001E+260</v>
       </c>
       <c r="H60" s="17">
         <f t="shared" si="5"/>
         <v>2.1652</v>
       </c>
-      <c r="I60" s="16" t="e" cm="1">
+      <c r="I60" s="16" t="str" cm="1">
         <f t="array" ref="I60">IF(AND(H59&gt;100,H60&lt;10),INDEX(L:L,MATCH(I59,L:L,0)+1,0),I59)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J60" s="16" t="e">
+        <v>환</v>
+      </c>
+      <c r="J60" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+260</v>
       </c>
       <c r="L60" s="16" t="s">
         <v>81</v>
@@ -4818,25 +5828,25 @@
       <c r="E61" s="16">
         <v>53</v>
       </c>
-      <c r="F61" s="17" t="e">
+      <c r="F61" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G61" s="17" t="e">
+        <v>6.5환</v>
+      </c>
+      <c r="G61" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>6.5000000000000006E+260</v>
       </c>
       <c r="H61" s="17">
         <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
-      <c r="I61" s="16" t="e" cm="1">
+      <c r="I61" s="16" t="str" cm="1">
         <f t="array" ref="I61">IF(AND(H60&gt;100,H61&lt;10),INDEX(L:L,MATCH(I60,L:L,0)+1,0),I60)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J61" s="16" t="e">
+        <v>환</v>
+      </c>
+      <c r="J61" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+260</v>
       </c>
       <c r="L61" s="16" t="s">
         <v>79</v>
@@ -4866,25 +5876,25 @@
       <c r="E62" s="16">
         <v>54</v>
       </c>
-      <c r="F62" s="17" t="e">
+      <c r="F62" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G62" s="17" t="e">
+        <v>19.5환</v>
+      </c>
+      <c r="G62" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>1.9500000000000002E+261</v>
       </c>
       <c r="H62" s="17">
         <f t="shared" si="5"/>
         <v>19.5</v>
       </c>
-      <c r="I62" s="16" t="e" cm="1">
+      <c r="I62" s="16" t="str" cm="1">
         <f t="array" ref="I62">IF(AND(H61&gt;100,H62&lt;10),INDEX(L:L,MATCH(I61,L:L,0)+1,0),I61)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J62" s="16" t="e">
+        <v>환</v>
+      </c>
+      <c r="J62" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+260</v>
       </c>
       <c r="L62" s="16" t="s">
         <v>82</v>
@@ -4914,25 +5924,25 @@
       <c r="E63" s="16">
         <v>55</v>
       </c>
-      <c r="F63" s="17" t="e">
+      <c r="F63" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G63" s="17" t="e">
+        <v>58.5환</v>
+      </c>
+      <c r="G63" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>5.8500000000000001E+261</v>
       </c>
       <c r="H63" s="17">
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="I63" s="16" t="e" cm="1">
+      <c r="I63" s="16" t="str" cm="1">
         <f t="array" ref="I63">IF(AND(H62&gt;100,H63&lt;10),INDEX(L:L,MATCH(I62,L:L,0)+1,0),I62)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J63" s="16" t="e">
+        <v>환</v>
+      </c>
+      <c r="J63" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+260</v>
       </c>
       <c r="L63" s="16" t="s">
         <v>83</v>
@@ -4962,25 +5972,25 @@
       <c r="E64" s="16">
         <v>56</v>
       </c>
-      <c r="F64" s="17" t="e">
+      <c r="F64" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G64" s="17" t="e">
+        <v>175.5환</v>
+      </c>
+      <c r="G64" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>1.755E+262</v>
       </c>
       <c r="H64" s="17">
         <f t="shared" si="5"/>
         <v>175.5</v>
       </c>
-      <c r="I64" s="16" t="e" cm="1">
+      <c r="I64" s="16" t="str" cm="1">
         <f t="array" ref="I64">IF(AND(H63&gt;100,H64&lt;10),INDEX(L:L,MATCH(I63,L:L,0)+1,0),I63)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J64" s="16" t="e">
+        <v>환</v>
+      </c>
+      <c r="J64" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+260</v>
       </c>
       <c r="L64" s="16" t="s">
         <v>84</v>
@@ -5010,25 +6020,25 @@
       <c r="E65" s="16">
         <v>57</v>
       </c>
-      <c r="F65" s="17" t="e">
+      <c r="F65" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G65" s="17" t="e">
+        <v>526.5환</v>
+      </c>
+      <c r="G65" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>5.2650000000000001E+262</v>
       </c>
       <c r="H65" s="17">
         <f t="shared" si="5"/>
         <v>526.5</v>
       </c>
-      <c r="I65" s="16" t="e" cm="1">
+      <c r="I65" s="16" t="str" cm="1">
         <f t="array" ref="I65">IF(AND(H64&gt;100,H65&lt;10),INDEX(L:L,MATCH(I64,L:L,0)+1,0),I64)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J65" s="16" t="e">
+        <v>환</v>
+      </c>
+      <c r="J65" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+260</v>
       </c>
       <c r="L65" s="16" t="s">
         <v>85</v>
@@ -5058,25 +6068,25 @@
       <c r="E66" s="16">
         <v>58</v>
       </c>
-      <c r="F66" s="17" t="e">
+      <c r="F66" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G66" s="17" t="e">
+        <v>1579.5환</v>
+      </c>
+      <c r="G66" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>1.5795E+263</v>
       </c>
       <c r="H66" s="17">
         <f t="shared" si="5"/>
         <v>1579.5</v>
       </c>
-      <c r="I66" s="16" t="e" cm="1">
+      <c r="I66" s="16" t="str" cm="1">
         <f t="array" ref="I66">IF(AND(H65&gt;100,H66&lt;10),INDEX(L:L,MATCH(I65,L:L,0)+1,0),I65)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J66" s="16" t="e">
+        <v>환</v>
+      </c>
+      <c r="J66" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+260</v>
       </c>
       <c r="L66" s="16" t="s">
         <v>86</v>
@@ -5106,25 +6116,25 @@
       <c r="E67" s="16">
         <v>59</v>
       </c>
-      <c r="F67" s="17" t="e">
+      <c r="F67" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G67" s="17" t="e">
+        <v>4738.5환</v>
+      </c>
+      <c r="G67" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>4.7385000000000001E+263</v>
       </c>
       <c r="H67" s="17">
         <f t="shared" si="5"/>
         <v>4738.5</v>
       </c>
-      <c r="I67" s="16" t="e" cm="1">
+      <c r="I67" s="16" t="str" cm="1">
         <f t="array" ref="I67">IF(AND(H66&gt;100,H67&lt;10),INDEX(L:L,MATCH(I66,L:L,0)+1,0),I66)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J67" s="16" t="e">
+        <v>환</v>
+      </c>
+      <c r="J67" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+260</v>
       </c>
       <c r="L67" s="16" t="s">
         <v>87</v>
@@ -5145,25 +6155,25 @@
       <c r="E68" s="16">
         <v>60</v>
       </c>
-      <c r="F68" s="17" t="e">
+      <c r="F68" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G68" s="17" t="e">
+        <v>1.4216종</v>
+      </c>
+      <c r="G68" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>1.4216E+264</v>
       </c>
       <c r="H68" s="17">
         <f t="shared" si="5"/>
         <v>1.4216</v>
       </c>
-      <c r="I68" s="16" t="e" cm="1">
+      <c r="I68" s="16" t="str" cm="1">
         <f t="array" ref="I68">IF(AND(H67&gt;100,H68&lt;10),INDEX(L:L,MATCH(I67,L:L,0)+1,0),I67)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J68" s="16" t="e">
+        <v>종</v>
+      </c>
+      <c r="J68" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+264</v>
       </c>
       <c r="L68" s="16" t="s">
         <v>88</v>
@@ -5184,25 +6194,25 @@
       <c r="E69" s="16">
         <v>61</v>
       </c>
-      <c r="F69" s="17" t="e">
+      <c r="F69" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G69" s="17" t="e">
+        <v>4.27종</v>
+      </c>
+      <c r="G69" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>4.2699999999999994E+264</v>
       </c>
       <c r="H69" s="17">
         <f t="shared" si="5"/>
         <v>4.2699999999999996</v>
       </c>
-      <c r="I69" s="16" t="e" cm="1">
+      <c r="I69" s="16" t="str" cm="1">
         <f t="array" ref="I69">IF(AND(H68&gt;100,H69&lt;10),INDEX(L:L,MATCH(I68,L:L,0)+1,0),I68)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J69" s="16" t="e">
+        <v>종</v>
+      </c>
+      <c r="J69" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+264</v>
       </c>
       <c r="L69" s="16" t="s">
         <v>89</v>
@@ -5223,25 +6233,25 @@
       <c r="E70" s="16">
         <v>62</v>
       </c>
-      <c r="F70" s="17" t="e">
+      <c r="F70" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G70" s="17" t="e">
+        <v>12.81종</v>
+      </c>
+      <c r="G70" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>1.2810000000000001E+265</v>
       </c>
       <c r="H70" s="17">
         <f t="shared" si="5"/>
         <v>12.81</v>
       </c>
-      <c r="I70" s="16" t="e" cm="1">
+      <c r="I70" s="16" t="str" cm="1">
         <f t="array" ref="I70">IF(AND(H69&gt;100,H70&lt;10),INDEX(L:L,MATCH(I69,L:L,0)+1,0),I69)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J70" s="16" t="e">
+        <v>종</v>
+      </c>
+      <c r="J70" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+264</v>
       </c>
       <c r="L70" s="16" t="s">
         <v>90</v>
@@ -5262,200 +6272,274 @@
       <c r="E71" s="16">
         <v>63</v>
       </c>
-      <c r="F71" s="17" t="e">
+      <c r="F71" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G71" s="17" t="e">
+        <v>38.43종</v>
+      </c>
+      <c r="G71" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>3.8430000000000001E+265</v>
       </c>
       <c r="H71" s="17">
         <f t="shared" si="5"/>
         <v>38.43</v>
       </c>
-      <c r="I71" s="16" t="e" cm="1">
+      <c r="I71" s="16" t="str" cm="1">
         <f t="array" ref="I71">IF(AND(H70&gt;100,H71&lt;10),INDEX(L:L,MATCH(I70,L:L,0)+1,0),I70)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J71" s="16" t="e">
+        <v>종</v>
+      </c>
+      <c r="J71" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+264</v>
+      </c>
+      <c r="L71" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="M71" s="16">
+        <v>256</v>
+      </c>
+      <c r="N71" s="17">
+        <f t="shared" ref="N71:N76" si="44">POWER(10,M71)</f>
+        <v>1E+256</v>
+      </c>
+      <c r="O71" s="17" t="str">
+        <f t="shared" ref="O71:O76" si="45">RIGHT(N71,M71)</f>
+        <v>1E+256</v>
       </c>
     </row>
     <row r="72" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E72" s="16">
         <v>64</v>
       </c>
-      <c r="F72" s="17" t="e">
+      <c r="F72" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G72" s="17" t="e">
+        <v>115.29종</v>
+      </c>
+      <c r="G72" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>1.1529000000000001E+266</v>
       </c>
       <c r="H72" s="17">
         <f t="shared" si="5"/>
         <v>115.29</v>
       </c>
-      <c r="I72" s="16" t="e" cm="1">
+      <c r="I72" s="16" t="str" cm="1">
         <f t="array" ref="I72">IF(AND(H71&gt;100,H72&lt;10),INDEX(L:L,MATCH(I71,L:L,0)+1,0),I71)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J72" s="16" t="e">
+        <v>종</v>
+      </c>
+      <c r="J72" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+264</v>
+      </c>
+      <c r="L72" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M72" s="16">
+        <v>260</v>
+      </c>
+      <c r="N72" s="17">
+        <f t="shared" si="44"/>
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="O72" s="17" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+260</v>
       </c>
     </row>
     <row r="73" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E73" s="16">
         <v>65</v>
       </c>
-      <c r="F73" s="17" t="e">
+      <c r="F73" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G73" s="17" t="e">
+        <v>345.87종</v>
+      </c>
+      <c r="G73" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>3.4587000000000001E+266</v>
       </c>
       <c r="H73" s="17">
         <f t="shared" si="5"/>
         <v>345.87</v>
       </c>
-      <c r="I73" s="16" t="e" cm="1">
+      <c r="I73" s="16" t="str" cm="1">
         <f t="array" ref="I73">IF(AND(H72&gt;100,H73&lt;10),INDEX(L:L,MATCH(I72,L:L,0)+1,0),I72)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J73" s="16" t="e">
-        <f t="shared" ref="J73:J78" si="44">VLOOKUP(I73,L:O,4,FALSE)</f>
-        <v>#N/A</v>
+        <v>종</v>
+      </c>
+      <c r="J73" s="16" t="str">
+        <f t="shared" ref="J73:J78" si="46">VLOOKUP(I73,L:O,4,FALSE)</f>
+        <v>1E+264</v>
+      </c>
+      <c r="L73" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="M73" s="16">
+        <v>264</v>
+      </c>
+      <c r="N73" s="17">
+        <f t="shared" si="44"/>
+        <v>1E+264</v>
+      </c>
+      <c r="O73" s="17" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+264</v>
       </c>
     </row>
     <row r="74" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E74" s="16">
         <v>66</v>
       </c>
-      <c r="F74" s="17" t="e">
+      <c r="F74" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G74" s="17" t="e">
+        <v>1037.61종</v>
+      </c>
+      <c r="G74" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>1.0376099999999999E+267</v>
       </c>
       <c r="H74" s="17">
         <f t="shared" si="5"/>
         <v>1037.6099999999999</v>
       </c>
-      <c r="I74" s="16" t="e" cm="1">
+      <c r="I74" s="16" t="str" cm="1">
         <f t="array" ref="I74">IF(AND(H73&gt;100,H74&lt;10),INDEX(L:L,MATCH(I73,L:L,0)+1,0),I73)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J74" s="16" t="e">
+        <v>종</v>
+      </c>
+      <c r="J74" s="16" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+264</v>
+      </c>
+      <c r="L74" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="M74" s="16">
+        <v>268</v>
+      </c>
+      <c r="N74" s="17">
         <f t="shared" si="44"/>
-        <v>#N/A</v>
+        <v>9.9999999999999997E+267</v>
+      </c>
+      <c r="O74" s="17" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+268</v>
       </c>
     </row>
     <row r="75" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E75" s="16">
         <v>67</v>
       </c>
-      <c r="F75" s="17" t="e">
+      <c r="F75" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G75" s="17" t="e">
+        <v>3112.83종</v>
+      </c>
+      <c r="G75" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>3.1128299999999998E+267</v>
       </c>
       <c r="H75" s="17">
-        <f t="shared" ref="H75:H78" si="45">IF(ROUNDUP(H74*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H74*((100+$B$10)/100)/10000,4),ROUNDUP(H74*((100+$B$10)/100),2))</f>
+        <f t="shared" ref="H75:H78" si="47">IF(ROUNDUP(H74*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H74*((100+$B$10)/100)/10000,4),ROUNDUP(H74*((100+$B$10)/100),2))</f>
         <v>3112.83</v>
       </c>
-      <c r="I75" s="16" t="e" cm="1">
+      <c r="I75" s="16" t="str" cm="1">
         <f t="array" ref="I75">IF(AND(H74&gt;100,H75&lt;10),INDEX(L:L,MATCH(I74,L:L,0)+1,0),I74)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J75" s="16" t="e">
+        <v>종</v>
+      </c>
+      <c r="J75" s="16" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+264</v>
+      </c>
+      <c r="L75" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="M75" s="16">
+        <v>272</v>
+      </c>
+      <c r="N75" s="17">
         <f t="shared" si="44"/>
-        <v>#N/A</v>
+        <v>1.0000000000000001E+272</v>
+      </c>
+      <c r="O75" s="17" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+272</v>
       </c>
     </row>
     <row r="76" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E76" s="16">
         <v>68</v>
       </c>
-      <c r="F76" s="17" t="e">
+      <c r="F76" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G76" s="17" t="e">
+        <v>9338.49종</v>
+      </c>
+      <c r="G76" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>9.33849E+267</v>
       </c>
       <c r="H76" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>9338.49</v>
       </c>
-      <c r="I76" s="16" t="e" cm="1">
+      <c r="I76" s="16" t="str" cm="1">
         <f t="array" ref="I76">IF(AND(H75&gt;100,H76&lt;10),INDEX(L:L,MATCH(I75,L:L,0)+1,0),I75)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J76" s="16" t="e">
-        <f t="shared" si="44"/>
-        <v>#N/A</v>
-      </c>
+        <v>종</v>
+      </c>
+      <c r="J76" s="16" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+264</v>
+      </c>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
     </row>
     <row r="77" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E77" s="16">
         <v>69</v>
       </c>
-      <c r="F77" s="17" t="e">
+      <c r="F77" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G77" s="17" t="e">
+        <v>2.8016덕</v>
+      </c>
+      <c r="G77" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>2.8015999999999998E+268</v>
       </c>
       <c r="H77" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2.8016000000000001</v>
       </c>
-      <c r="I77" s="16" t="e" cm="1">
+      <c r="I77" s="16" t="str" cm="1">
         <f t="array" ref="I77">IF(AND(H76&gt;100,H77&lt;10),INDEX(L:L,MATCH(I76,L:L,0)+1,0),I76)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J77" s="16" t="e">
-        <f t="shared" si="44"/>
-        <v>#N/A</v>
+        <v>덕</v>
+      </c>
+      <c r="J77" s="16" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+268</v>
       </c>
     </row>
     <row r="78" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E78" s="16">
         <v>70</v>
       </c>
-      <c r="F78" s="17" t="e">
+      <c r="F78" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G78" s="17" t="e">
+        <v>8.41덕</v>
+      </c>
+      <c r="G78" s="17">
         <f t="shared" si="33"/>
-        <v>#N/A</v>
+        <v>8.4100000000000004E+268</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>8.41</v>
       </c>
-      <c r="I78" s="16" t="e" cm="1">
+      <c r="I78" s="16" t="str" cm="1">
         <f t="array" ref="I78">IF(AND(H77&gt;100,H78&lt;10),INDEX(L:L,MATCH(I77,L:L,0)+1,0),I77)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J78" s="16" t="e">
-        <f t="shared" si="44"/>
-        <v>#N/A</v>
+        <v>덕</v>
+      </c>
+      <c r="J78" s="16" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+268</v>
       </c>
     </row>
   </sheetData>
